--- a/planilhas_diarias/2021-02-04.xlsx
+++ b/planilhas_diarias/2021-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="370">
   <si>
     <t>Asset</t>
   </si>
@@ -583,6 +583,9 @@
     <t>ESPA3</t>
   </si>
   <si>
+    <t>INTB3</t>
+  </si>
+  <si>
     <t>04/02/2021</t>
   </si>
   <si>
@@ -748,7 +751,7 @@
     <t>Engie Brasil ON NM</t>
   </si>
   <si>
-    <t>Eletrobras ON N1</t>
+    <t>Eletrobras ON ED N1</t>
   </si>
   <si>
     <t>Embraer ON NM</t>
@@ -1118,6 +1121,9 @@
   </si>
   <si>
     <t>Espacolaser ON NM</t>
+  </si>
+  <si>
+    <t>Intelbras ON NM</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,7 +1530,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>10.97</v>
@@ -1542,7 +1548,7 @@
         <v>-4.608695652173908</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J2">
         <v>1297</v>
@@ -1562,7 +1568,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3">
         <v>15.82</v>
@@ -1580,7 +1586,7 @@
         <v>-0.5031446540880508</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J3">
         <v>3469</v>
@@ -1600,7 +1606,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D4">
         <v>15.6</v>
@@ -1618,7 +1624,7 @@
         <v>-0.5102040816326535</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J4">
         <v>28350</v>
@@ -1638,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5">
         <v>11.97</v>
@@ -1656,7 +1662,7 @@
         <v>-1.15606936416184</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J5">
         <v>9452</v>
@@ -1676,7 +1682,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -1694,7 +1700,7 @@
         <v>-3.807615230460919</v>
       </c>
       <c r="I6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J6">
         <v>10732</v>
@@ -1714,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D7">
         <v>41</v>
@@ -1732,7 +1738,7 @@
         <v>0.9603545924649115</v>
       </c>
       <c r="I7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J7">
         <v>5968</v>
@@ -1752,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8">
         <v>29</v>
@@ -1770,7 +1776,7 @@
         <v>-0.1033413709955258</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J8">
         <v>5042</v>
@@ -1790,7 +1796,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9">
         <v>6.25</v>
@@ -1808,7 +1814,7 @@
         <v>-1.263823064770933</v>
       </c>
       <c r="I9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J9">
         <v>6497</v>
@@ -1828,7 +1834,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10">
         <v>25.26</v>
@@ -1846,7 +1852,7 @@
         <v>-0.9411764705882292</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J10">
         <v>1668</v>
@@ -1866,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11">
         <v>33.13</v>
@@ -1884,7 +1890,7 @@
         <v>-1.133989853774979</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J11">
         <v>3842</v>
@@ -1904,7 +1910,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12">
         <v>74.51000000000001</v>
@@ -1922,7 +1928,7 @@
         <v>2.772413793103455</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J12">
         <v>3038</v>
@@ -1942,7 +1948,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D13">
         <v>43.37</v>
@@ -1960,7 +1966,7 @@
         <v>2.023053399200187</v>
       </c>
       <c r="I13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J13">
         <v>16480</v>
@@ -1980,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14">
         <v>62.44</v>
@@ -1998,7 +2004,7 @@
         <v>-0.8259212198221142</v>
       </c>
       <c r="I14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J14">
         <v>24585</v>
@@ -2018,7 +2024,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D15">
         <v>34.19</v>
@@ -2036,7 +2042,7 @@
         <v>-0.4078065831634156</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J15">
         <v>24098</v>
@@ -2056,7 +2062,7 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D16">
         <v>26.01</v>
@@ -2074,7 +2080,7 @@
         <v>3.009900990099016</v>
       </c>
       <c r="I16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J16">
         <v>117600</v>
@@ -2094,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17">
         <v>2.38</v>
@@ -2112,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J17">
         <v>1122</v>
@@ -2132,7 +2138,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18">
         <v>28.28</v>
@@ -2150,7 +2156,7 @@
         <v>-0.2469135802469146</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J18">
         <v>9091</v>
@@ -2170,7 +2176,7 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D19">
         <v>9.369999999999999</v>
@@ -2188,7 +2194,7 @@
         <v>-1.368421052631587</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J19">
         <v>14183</v>
@@ -2208,7 +2214,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20">
         <v>156.63</v>
@@ -2226,7 +2232,7 @@
         <v>0.5327342747111579</v>
       </c>
       <c r="I20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J20">
         <v>8495</v>
@@ -2246,7 +2252,7 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21">
         <v>10.03</v>
@@ -2264,7 +2270,7 @@
         <v>1.007049345417922</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J21">
         <v>6941</v>
@@ -2284,7 +2290,7 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22">
         <v>5.72</v>
@@ -2302,7 +2308,7 @@
         <v>0.5272407732864562</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J22">
         <v>3020</v>
@@ -2322,7 +2328,7 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23">
         <v>10.1</v>
@@ -2340,7 +2346,7 @@
         <v>-0.4926108374384306</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J23">
         <v>2499</v>
@@ -2360,7 +2366,7 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24">
         <v>114.62</v>
@@ -2378,7 +2384,7 @@
         <v>-0.5466377440347032</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J24">
         <v>85355</v>
@@ -2398,7 +2404,7 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D25">
         <v>11.85</v>
@@ -2416,7 +2422,7 @@
         <v>4.960141718334814</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J25">
         <v>15154</v>
@@ -2436,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26">
         <v>61.51</v>
@@ -2454,7 +2460,7 @@
         <v>-1.426282051282052</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J26">
         <v>12567</v>
@@ -2474,7 +2480,7 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>22.77</v>
@@ -2492,7 +2498,7 @@
         <v>-0.9569377990430573</v>
       </c>
       <c r="I27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J27">
         <v>20139</v>
@@ -2512,7 +2518,7 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28">
         <v>22.39</v>
@@ -2530,7 +2536,7 @@
         <v>-0.7975188303057142</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J28">
         <v>16335</v>
@@ -2550,7 +2556,7 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D29">
         <v>29.71</v>
@@ -2568,7 +2574,7 @@
         <v>2.90959473501905</v>
       </c>
       <c r="I29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J29">
         <v>19863</v>
@@ -2588,7 +2594,7 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30">
         <v>9.91</v>
@@ -2606,7 +2612,7 @@
         <v>-2.268244575936888</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J30">
         <v>33174</v>
@@ -2626,7 +2632,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31">
         <v>9.119999999999999</v>
@@ -2644,7 +2650,7 @@
         <v>0.551267916207265</v>
       </c>
       <c r="I31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J31">
         <v>10335</v>
@@ -2664,7 +2670,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>13.65</v>
@@ -2682,7 +2688,7 @@
         <v>0.3676470588235347</v>
       </c>
       <c r="I32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J32">
         <v>3631</v>
@@ -2702,7 +2708,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D33">
         <v>86.34</v>
@@ -2720,7 +2726,7 @@
         <v>-4.480584135413206</v>
       </c>
       <c r="I33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J33">
         <v>22973</v>
@@ -2740,7 +2746,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D34">
         <v>11.29</v>
@@ -2758,7 +2764,7 @@
         <v>-1.138353765324</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J34">
         <v>5031</v>
@@ -2778,7 +2784,7 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D35">
         <v>15.62</v>
@@ -2796,7 +2802,7 @@
         <v>2.091503267973847</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J35">
         <v>520</v>
@@ -2816,7 +2822,7 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36">
         <v>34.1</v>
@@ -2834,7 +2840,7 @@
         <v>5.08474576271186</v>
       </c>
       <c r="I36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J36">
         <v>26536</v>
@@ -2854,7 +2860,7 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D37">
         <v>12.44</v>
@@ -2872,7 +2878,7 @@
         <v>-1.348136399682791</v>
       </c>
       <c r="I37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J37">
         <v>12232</v>
@@ -2892,7 +2898,7 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D38">
         <v>12.36</v>
@@ -2910,7 +2916,7 @@
         <v>-0.1615508885298978</v>
       </c>
       <c r="I38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J38">
         <v>4800</v>
@@ -2930,7 +2936,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D39">
         <v>30.68</v>
@@ -2948,7 +2954,7 @@
         <v>0.5571943625040909</v>
       </c>
       <c r="I39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J39">
         <v>8426</v>
@@ -2968,7 +2974,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D40">
         <v>4.13</v>
@@ -2986,7 +2992,7 @@
         <v>-1.666666666666673</v>
       </c>
       <c r="I40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J40">
         <v>17106</v>
@@ -3006,7 +3012,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D41">
         <v>14.29</v>
@@ -3024,7 +3030,7 @@
         <v>-0.9015256588072176</v>
       </c>
       <c r="I41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J41">
         <v>12658</v>
@@ -3044,7 +3050,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D42">
         <v>25.14</v>
@@ -3062,7 +3068,7 @@
         <v>0.5197920831667293</v>
       </c>
       <c r="I42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J42">
         <v>7539</v>
@@ -3082,7 +3088,7 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D43">
         <v>4.62</v>
@@ -3100,7 +3106,7 @@
         <v>-2.531645569620255</v>
       </c>
       <c r="I43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J43">
         <v>17465</v>
@@ -3120,7 +3126,7 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44">
         <v>33.13</v>
@@ -3138,7 +3144,7 @@
         <v>1.253056234718838</v>
       </c>
       <c r="I44" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J44">
         <v>11978</v>
@@ -3158,7 +3164,7 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D45">
         <v>67.34</v>
@@ -3176,7 +3182,7 @@
         <v>1.98394669089808</v>
       </c>
       <c r="I45" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J45">
         <v>5564</v>
@@ -3196,7 +3202,7 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D46">
         <v>79.93000000000001</v>
@@ -3214,7 +3220,7 @@
         <v>1.241291956934774</v>
       </c>
       <c r="I46" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J46">
         <v>7350</v>
@@ -3234,7 +3240,7 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D47">
         <v>15.76</v>
@@ -3252,7 +3258,7 @@
         <v>-1.438398999374612</v>
       </c>
       <c r="I47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J47">
         <v>6811</v>
@@ -3272,7 +3278,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48">
         <v>31.1</v>
@@ -3290,7 +3296,7 @@
         <v>-0.2565747273893467</v>
       </c>
       <c r="I48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J48">
         <v>24899</v>
@@ -3310,7 +3316,7 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D49">
         <v>11.12</v>
@@ -3328,7 +3334,7 @@
         <v>-2.370500438981574</v>
       </c>
       <c r="I49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J49">
         <v>3366</v>
@@ -3348,7 +3354,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D50">
         <v>20.11</v>
@@ -3366,7 +3372,7 @@
         <v>3.022540983606557</v>
       </c>
       <c r="I50" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J50">
         <v>14266</v>
@@ -3386,7 +3392,7 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D51">
         <v>27.86</v>
@@ -3404,7 +3410,7 @@
         <v>-0.9950248756218946</v>
       </c>
       <c r="I51" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J51">
         <v>22237</v>
@@ -3424,10 +3430,10 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D52">
-        <v>11.79</v>
+        <v>11.73</v>
       </c>
       <c r="E52">
         <v>11.89</v>
@@ -3439,19 +3445,19 @@
         <v>11.71</v>
       </c>
       <c r="H52">
-        <v>-0.7575757575757713</v>
+        <v>-1.262626262626266</v>
       </c>
       <c r="I52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J52">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="K52">
-        <v>119300</v>
+        <v>135200</v>
       </c>
       <c r="L52">
-        <v>1416760</v>
+        <v>1604112</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3462,7 +3468,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53">
         <v>20.77</v>
@@ -3480,7 +3486,7 @@
         <v>0.7274490785644936</v>
       </c>
       <c r="I53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J53">
         <v>16010</v>
@@ -3500,7 +3506,7 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54">
         <v>12.54</v>
@@ -3518,7 +3524,7 @@
         <v>-1.647058823529418</v>
       </c>
       <c r="I54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J54">
         <v>8415</v>
@@ -3538,7 +3544,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D55">
         <v>45.12</v>
@@ -3556,7 +3562,7 @@
         <v>0.266666666666661</v>
       </c>
       <c r="I55" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J55">
         <v>6251</v>
@@ -3576,7 +3582,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D56">
         <v>29.85</v>
@@ -3594,7 +3600,7 @@
         <v>-1.436029176256151</v>
       </c>
       <c r="I56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J56">
         <v>23057</v>
@@ -3614,7 +3620,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D57">
         <v>9.449999999999999</v>
@@ -3632,7 +3638,7 @@
         <v>-1.970954356846486</v>
       </c>
       <c r="I57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J57">
         <v>12795</v>
@@ -3652,7 +3658,7 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D58">
         <v>12.11</v>
@@ -3670,7 +3676,7 @@
         <v>-1.142857142857147</v>
       </c>
       <c r="I58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J58">
         <v>4931</v>
@@ -3690,7 +3696,7 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D59">
         <v>19.9</v>
@@ -3708,7 +3714,7 @@
         <v>-0.05022601707685365</v>
       </c>
       <c r="I59" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J59">
         <v>10493</v>
@@ -3728,7 +3734,7 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60">
         <v>72.93000000000001</v>
@@ -3746,7 +3752,7 @@
         <v>-0.2052545155993315</v>
       </c>
       <c r="I60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J60">
         <v>7250</v>
@@ -3766,7 +3772,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61">
         <v>50.76</v>
@@ -3784,7 +3790,7 @@
         <v>-2.384615384615389</v>
       </c>
       <c r="I61" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J61">
         <v>4743</v>
@@ -3804,7 +3810,7 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62">
         <v>20.9</v>
@@ -3822,7 +3828,7 @@
         <v>9.999999999999993</v>
       </c>
       <c r="I62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J62">
         <v>15010</v>
@@ -3842,7 +3848,7 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63">
         <v>23.32</v>
@@ -3860,7 +3866,7 @@
         <v>0.3442340791738462</v>
       </c>
       <c r="I63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J63">
         <v>13234</v>
@@ -3880,7 +3886,7 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64">
         <v>12.96</v>
@@ -3898,7 +3904,7 @@
         <v>-2.188679245283013</v>
       </c>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J64">
         <v>1452</v>
@@ -3918,7 +3924,7 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65">
         <v>12.05</v>
@@ -3936,7 +3942,7 @@
         <v>-0.5775577557755653</v>
       </c>
       <c r="I65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J65">
         <v>7602</v>
@@ -3956,7 +3962,7 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66">
         <v>38.65</v>
@@ -3974,7 +3980,7 @@
         <v>-1.352730985196532</v>
       </c>
       <c r="I66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J66">
         <v>9065</v>
@@ -3994,7 +4000,7 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67">
         <v>21.77</v>
@@ -4012,7 +4018,7 @@
         <v>2.68867924528302</v>
       </c>
       <c r="I67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J67">
         <v>549</v>
@@ -4032,7 +4038,7 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68">
         <v>27.95</v>
@@ -4050,7 +4056,7 @@
         <v>-1.376146788990828</v>
       </c>
       <c r="I68" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J68">
         <v>7249</v>
@@ -4070,7 +4076,7 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D69">
         <v>5.39</v>
@@ -4088,7 +4094,7 @@
         <v>-0.5535055350553552</v>
       </c>
       <c r="I69" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J69">
         <v>11180</v>
@@ -4108,7 +4114,7 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D70">
         <v>23.19</v>
@@ -4126,7 +4132,7 @@
         <v>-1.444963875903102</v>
       </c>
       <c r="I70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J70">
         <v>25527</v>
@@ -4146,7 +4152,7 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71">
         <v>8.609999999999999</v>
@@ -4164,7 +4170,7 @@
         <v>2.622169249106065</v>
       </c>
       <c r="I71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J71">
         <v>7898</v>
@@ -4184,7 +4190,7 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D72">
         <v>97.13</v>
@@ -4202,7 +4208,7 @@
         <v>-0.410130216343695</v>
       </c>
       <c r="I72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J72">
         <v>9540</v>
@@ -4222,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D73">
         <v>10.62</v>
@@ -4240,7 +4246,7 @@
         <v>-1.848428835489843</v>
       </c>
       <c r="I73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J73">
         <v>15501</v>
@@ -4260,7 +4266,7 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D74">
         <v>25.23</v>
@@ -4278,7 +4284,7 @@
         <v>0.9200000000000017</v>
       </c>
       <c r="I74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J74">
         <v>11487</v>
@@ -4298,7 +4304,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D75">
         <v>7.72</v>
@@ -4316,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J75">
         <v>5024</v>
@@ -4336,7 +4342,7 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D76">
         <v>15.15</v>
@@ -4354,7 +4360,7 @@
         <v>-0.06596306068601443</v>
       </c>
       <c r="I76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J76">
         <v>2272</v>
@@ -4374,7 +4380,7 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D77">
         <v>17.82</v>
@@ -4392,7 +4398,7 @@
         <v>0.7348784624081345</v>
       </c>
       <c r="I77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J77">
         <v>18573</v>
@@ -4412,7 +4418,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D78">
         <v>10.73</v>
@@ -4430,7 +4436,7 @@
         <v>-0.8317929759704238</v>
       </c>
       <c r="I78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J78">
         <v>4817</v>
@@ -4450,7 +4456,7 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D79">
         <v>6.66</v>
@@ -4468,7 +4474,7 @@
         <v>-0.892857142857137</v>
       </c>
       <c r="I79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J79">
         <v>6573</v>
@@ -4488,7 +4494,7 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80">
         <v>17.8</v>
@@ -4506,7 +4512,7 @@
         <v>-0.2801120448179311</v>
       </c>
       <c r="I80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J80">
         <v>7031</v>
@@ -4526,7 +4532,7 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D81">
         <v>33.21</v>
@@ -4544,7 +4550,7 @@
         <v>0.5754088431253717</v>
       </c>
       <c r="I81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J81">
         <v>10109</v>
@@ -4564,7 +4570,7 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D82">
         <v>119260.82</v>
@@ -4582,7 +4588,7 @@
         <v>-0.3874721945476207</v>
       </c>
       <c r="I82" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J82">
         <v>1632097</v>
@@ -4602,7 +4608,7 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D83">
         <v>35.63</v>
@@ -4620,7 +4626,7 @@
         <v>-2.088485847760368</v>
       </c>
       <c r="I83" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J83">
         <v>12058</v>
@@ -4640,7 +4646,7 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D84">
         <v>7.12</v>
@@ -4658,7 +4664,7 @@
         <v>-2.331961591220849</v>
       </c>
       <c r="I84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J84">
         <v>17663</v>
@@ -4678,7 +4684,7 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D85">
         <v>10.82</v>
@@ -4696,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J85">
         <v>27834</v>
@@ -4716,7 +4722,7 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D86">
         <v>28.2</v>
@@ -4734,7 +4740,7 @@
         <v>-0.4237288135593256</v>
       </c>
       <c r="I86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J86">
         <v>76384</v>
@@ -4754,7 +4760,7 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D87">
         <v>25.1</v>
@@ -4772,7 +4778,7 @@
         <v>1.087394281111571</v>
       </c>
       <c r="I87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J87">
         <v>37407</v>
@@ -4792,7 +4798,7 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D88">
         <v>7.63</v>
@@ -4810,7 +4816,7 @@
         <v>-3.172588832487309</v>
       </c>
       <c r="I88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J88">
         <v>17849</v>
@@ -4830,7 +4836,7 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D89">
         <v>25.19</v>
@@ -4848,7 +4854,7 @@
         <v>0.2786624203821667</v>
       </c>
       <c r="I89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J89">
         <v>989</v>
@@ -4868,7 +4874,7 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D90">
         <v>28.01</v>
@@ -4886,7 +4892,7 @@
         <v>-0.9897490279250534</v>
       </c>
       <c r="I90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J90">
         <v>13594</v>
@@ -4906,7 +4912,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D91">
         <v>24.81</v>
@@ -4924,7 +4930,7 @@
         <v>-1.742574257425748</v>
       </c>
       <c r="I91" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J91">
         <v>16976</v>
@@ -4944,7 +4950,7 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D92">
         <v>8.449999999999999</v>
@@ -4962,7 +4968,7 @@
         <v>0.2372479240806593</v>
       </c>
       <c r="I92" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J92">
         <v>4319</v>
@@ -4982,7 +4988,7 @@
         <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D93">
         <v>28.06</v>
@@ -5000,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J93">
         <v>7122</v>
@@ -5020,7 +5026,7 @@
         <v>103</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D94">
         <v>19.37</v>
@@ -5038,7 +5044,7 @@
         <v>-0.564681724845993</v>
       </c>
       <c r="I94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J94">
         <v>1021</v>
@@ -5058,7 +5064,7 @@
         <v>104</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D95">
         <v>21.6</v>
@@ -5076,7 +5082,7 @@
         <v>-0.4608294930875478</v>
       </c>
       <c r="I95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J95">
         <v>11196</v>
@@ -5096,7 +5102,7 @@
         <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D96">
         <v>38.06</v>
@@ -5114,7 +5120,7 @@
         <v>0.3691983122362884</v>
       </c>
       <c r="I96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J96">
         <v>2205</v>
@@ -5134,10 +5140,10 @@
         <v>106</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D97">
-        <v>20.17</v>
+        <v>20.07</v>
       </c>
       <c r="E97">
         <v>20</v>
@@ -5149,19 +5155,19 @@
         <v>19.56</v>
       </c>
       <c r="H97">
-        <v>1.612090680100757</v>
+        <v>1.108312342569264</v>
       </c>
       <c r="I97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J97">
-        <v>7631</v>
+        <v>7965</v>
       </c>
       <c r="K97">
-        <v>3187600</v>
+        <v>3319700</v>
       </c>
       <c r="L97">
-        <v>64281201</v>
+        <v>66934106</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5172,7 +5178,7 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D98">
         <v>33.77</v>
@@ -5190,7 +5196,7 @@
         <v>0.5957700327673603</v>
       </c>
       <c r="I98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J98">
         <v>1425</v>
@@ -5210,7 +5216,7 @@
         <v>108</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D99">
         <v>16</v>
@@ -5228,7 +5234,7 @@
         <v>-4.076738609112708</v>
       </c>
       <c r="I99" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J99">
         <v>4466</v>
@@ -5248,7 +5254,7 @@
         <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D100">
         <v>41.34</v>
@@ -5266,7 +5272,7 @@
         <v>-1.195028680688336</v>
       </c>
       <c r="I100" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J100">
         <v>13009</v>
@@ -5286,7 +5292,7 @@
         <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D101">
         <v>28.98</v>
@@ -5304,7 +5310,7 @@
         <v>4.620938628158849</v>
       </c>
       <c r="I101" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J101">
         <v>12550</v>
@@ -5324,7 +5330,7 @@
         <v>111</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D102">
         <v>31.05</v>
@@ -5342,7 +5348,7 @@
         <v>-2.450518378887834</v>
       </c>
       <c r="I102" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J102">
         <v>8165</v>
@@ -5362,7 +5368,7 @@
         <v>112</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D103">
         <v>10.16</v>
@@ -5380,7 +5386,7 @@
         <v>-0.3921568627450897</v>
       </c>
       <c r="I103" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J103">
         <v>2176</v>
@@ -5400,7 +5406,7 @@
         <v>113</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D104">
         <v>6.59</v>
@@ -5418,7 +5424,7 @@
         <v>2.329192546583843</v>
       </c>
       <c r="I104" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J104">
         <v>1156</v>
@@ -5438,7 +5444,7 @@
         <v>114</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D105">
         <v>25.31</v>
@@ -5456,7 +5462,7 @@
         <v>-1.325536062378167</v>
       </c>
       <c r="I105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J105">
         <v>40740</v>
@@ -5476,7 +5482,7 @@
         <v>115</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D106">
         <v>6.17</v>
@@ -5494,7 +5500,7 @@
         <v>-0.4838709677419395</v>
       </c>
       <c r="I106" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J106">
         <v>2578</v>
@@ -5514,7 +5520,7 @@
         <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D107">
         <v>19.73</v>
@@ -5532,7 +5538,7 @@
         <v>-0.6545820745216466</v>
       </c>
       <c r="I107" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J107">
         <v>8580</v>
@@ -5552,7 +5558,7 @@
         <v>117</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D108">
         <v>14.28</v>
@@ -5570,7 +5576,7 @@
         <v>1.492537313432829</v>
       </c>
       <c r="I108" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J108">
         <v>26359</v>
@@ -5590,7 +5596,7 @@
         <v>118</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D109">
         <v>19.98</v>
@@ -5608,7 +5614,7 @@
         <v>-1.089108910891083</v>
       </c>
       <c r="I109" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J109">
         <v>10319</v>
@@ -5628,7 +5634,7 @@
         <v>119</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D110">
         <v>15.48</v>
@@ -5646,7 +5652,7 @@
         <v>-0.5141388174807202</v>
       </c>
       <c r="I110" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J110">
         <v>1346</v>
@@ -5666,7 +5672,7 @@
         <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D111">
         <v>22.13</v>
@@ -5684,7 +5690,7 @@
         <v>-1.644444444444449</v>
       </c>
       <c r="I111" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J111">
         <v>29723</v>
@@ -5704,7 +5710,7 @@
         <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D112">
         <v>14.17</v>
@@ -5722,7 +5728,7 @@
         <v>-1.254355400696862</v>
       </c>
       <c r="I112" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J112">
         <v>4745</v>
@@ -5742,7 +5748,7 @@
         <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D113">
         <v>19.02</v>
@@ -5760,7 +5766,7 @@
         <v>0.1052631578947346</v>
       </c>
       <c r="I113" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J113">
         <v>6509</v>
@@ -5780,7 +5786,7 @@
         <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D114">
         <v>8.720000000000001</v>
@@ -5798,7 +5804,7 @@
         <v>-1.691093573844404</v>
       </c>
       <c r="I114" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J114">
         <v>14376</v>
@@ -5818,7 +5824,7 @@
         <v>124</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D115">
         <v>50.41</v>
@@ -5836,7 +5842,7 @@
         <v>0.8199999999999932</v>
       </c>
       <c r="I115" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J115">
         <v>18380</v>
@@ -5856,7 +5862,7 @@
         <v>125</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D116">
         <v>14.06</v>
@@ -5874,7 +5880,7 @@
         <v>-0.9859154929577381</v>
       </c>
       <c r="I116" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J116">
         <v>5476</v>
@@ -5894,7 +5900,7 @@
         <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D117">
         <v>2.16</v>
@@ -5912,7 +5918,7 @@
         <v>-1.369863013698621</v>
       </c>
       <c r="I117" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J117">
         <v>27674</v>
@@ -5932,7 +5938,7 @@
         <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D118">
         <v>41.6</v>
@@ -5950,7 +5956,7 @@
         <v>1.339829476248488</v>
       </c>
       <c r="I118" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="J118">
         <v>4231</v>
@@ -5970,7 +5976,7 @@
         <v>128</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D119">
         <v>21.85</v>
@@ -5988,7 +5994,7 @@
         <v>-2.368185880250213</v>
       </c>
       <c r="I119" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J119">
         <v>2975</v>
@@ -6008,7 +6014,7 @@
         <v>129</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D120">
         <v>83.73</v>
@@ -6026,7 +6032,7 @@
         <v>2.109756097560981</v>
       </c>
       <c r="I120" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J120">
         <v>8361</v>
@@ -6046,7 +6052,7 @@
         <v>130</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D121">
         <v>28.82</v>
@@ -6064,7 +6070,7 @@
         <v>-0.1039861351819797</v>
       </c>
       <c r="I121" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J121">
         <v>57831</v>
@@ -6084,7 +6090,7 @@
         <v>131</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D122">
         <v>21.65</v>
@@ -6102,7 +6108,7 @@
         <v>-1.456531634046428</v>
       </c>
       <c r="I122" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J122">
         <v>12606</v>
@@ -6122,7 +6128,7 @@
         <v>132</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D123">
         <v>6.29</v>
@@ -6140,7 +6146,7 @@
         <v>-2.63157894736842</v>
       </c>
       <c r="I123" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J123">
         <v>734</v>
@@ -6160,7 +6166,7 @@
         <v>133</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D124">
         <v>9.92</v>
@@ -6178,7 +6184,7 @@
         <v>-0.8000000000000007</v>
       </c>
       <c r="I124" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J124">
         <v>2351</v>
@@ -6198,7 +6204,7 @@
         <v>134</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D125">
         <v>6.68</v>
@@ -6216,7 +6222,7 @@
         <v>-1.764705882352943</v>
       </c>
       <c r="I125" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J125">
         <v>897</v>
@@ -6236,7 +6242,7 @@
         <v>135</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D126">
         <v>21.04</v>
@@ -6254,7 +6260,7 @@
         <v>-2.996772706316285</v>
       </c>
       <c r="I126" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J126">
         <v>4689</v>
@@ -6274,7 +6280,7 @@
         <v>136</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D127">
         <v>2.92</v>
@@ -6292,7 +6298,7 @@
         <v>-3.947368421052635</v>
       </c>
       <c r="I127" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J127">
         <v>7229</v>
@@ -6312,7 +6318,7 @@
         <v>137</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D128">
         <v>4.6</v>
@@ -6330,7 +6336,7 @@
         <v>-1.075268817204316</v>
       </c>
       <c r="I128" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J128">
         <v>1550</v>
@@ -6350,7 +6356,7 @@
         <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D129">
         <v>75.88</v>
@@ -6368,7 +6374,7 @@
         <v>-1.300728407908429</v>
       </c>
       <c r="I129" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J129">
         <v>15008</v>
@@ -6388,7 +6394,7 @@
         <v>139</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D130">
         <v>8.470000000000001</v>
@@ -6406,7 +6412,7 @@
         <v>4.697156983930788</v>
       </c>
       <c r="I130" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J130">
         <v>503</v>
@@ -6426,7 +6432,7 @@
         <v>140</v>
       </c>
       <c r="C131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D131">
         <v>49.52</v>
@@ -6444,7 +6450,7 @@
         <v>-0.6619859578736175</v>
       </c>
       <c r="I131" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J131">
         <v>7023</v>
@@ -6464,7 +6470,7 @@
         <v>141</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D132">
         <v>9.880000000000001</v>
@@ -6482,7 +6488,7 @@
         <v>1.855670103092799</v>
       </c>
       <c r="I132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J132">
         <v>5170</v>
@@ -6502,7 +6508,7 @@
         <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D133">
         <v>31.31</v>
@@ -6520,7 +6526,7 @@
         <v>-0.9803921568627523</v>
       </c>
       <c r="I133" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J133">
         <v>12469</v>
@@ -6540,7 +6546,7 @@
         <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D134">
         <v>24.88</v>
@@ -6558,7 +6564,7 @@
         <v>-2.201257861635229</v>
       </c>
       <c r="I134" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J134">
         <v>12334</v>
@@ -6578,7 +6584,7 @@
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D135">
         <v>21.5</v>
@@ -6596,7 +6602,7 @@
         <v>-0.921658986175112</v>
       </c>
       <c r="I135" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J135">
         <v>18739</v>
@@ -6616,7 +6622,7 @@
         <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D136">
         <v>14.15</v>
@@ -6634,7 +6640,7 @@
         <v>-0.7713884992987338</v>
       </c>
       <c r="I136" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J136">
         <v>7984</v>
@@ -6654,7 +6660,7 @@
         <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D137">
         <v>73.40000000000001</v>
@@ -6672,7 +6678,7 @@
         <v>3.380281690140853</v>
       </c>
       <c r="I137" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J137">
         <v>14710</v>
@@ -6692,7 +6698,7 @@
         <v>147</v>
       </c>
       <c r="C138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D138">
         <v>69.59999999999999</v>
@@ -6710,7 +6716,7 @@
         <v>1.162790697674414</v>
       </c>
       <c r="I138" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J138">
         <v>21971</v>
@@ -6730,7 +6736,7 @@
         <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D139">
         <v>19.87</v>
@@ -6748,7 +6754,7 @@
         <v>1.27420998980632</v>
       </c>
       <c r="I139" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J139">
         <v>1594</v>
@@ -6768,7 +6774,7 @@
         <v>149</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D140">
         <v>17.26</v>
@@ -6786,7 +6792,7 @@
         <v>-2.815315315315315</v>
       </c>
       <c r="I140" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J140">
         <v>2373</v>
@@ -6806,7 +6812,7 @@
         <v>150</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D141">
         <v>34</v>
@@ -6824,7 +6830,7 @@
         <v>-0.7589025102159895</v>
       </c>
       <c r="I141" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J141">
         <v>2239</v>
@@ -6844,7 +6850,7 @@
         <v>151</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D142">
         <v>41.21</v>
@@ -6862,7 +6868,7 @@
         <v>0.9059745347698271</v>
       </c>
       <c r="I142" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J142">
         <v>13339</v>
@@ -6882,7 +6888,7 @@
         <v>152</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D143">
         <v>21.79</v>
@@ -6900,7 +6906,7 @@
         <v>-2.111410601976651</v>
       </c>
       <c r="I143" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J143">
         <v>13291</v>
@@ -6920,7 +6926,7 @@
         <v>153</v>
       </c>
       <c r="C144" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D144">
         <v>40.45</v>
@@ -6938,7 +6944,7 @@
         <v>-3.067337646776885</v>
       </c>
       <c r="I144" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J144">
         <v>20299</v>
@@ -6958,7 +6964,7 @@
         <v>154</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D145">
         <v>15.14</v>
@@ -6976,7 +6982,7 @@
         <v>-0.7863695937090381</v>
       </c>
       <c r="I145" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J145">
         <v>3954</v>
@@ -6996,7 +7002,7 @@
         <v>155</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D146">
         <v>30.29</v>
@@ -7014,7 +7020,7 @@
         <v>4.918600623484579</v>
       </c>
       <c r="I146" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J146">
         <v>5424</v>
@@ -7034,7 +7040,7 @@
         <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D147">
         <v>40.22</v>
@@ -7052,7 +7058,7 @@
         <v>1.565656565656559</v>
       </c>
       <c r="I147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J147">
         <v>4717</v>
@@ -7072,7 +7078,7 @@
         <v>157</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D148">
         <v>36.85</v>
@@ -7090,7 +7096,7 @@
         <v>-2.744787542887303</v>
       </c>
       <c r="I148" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J148">
         <v>8040</v>
@@ -7110,7 +7116,7 @@
         <v>158</v>
       </c>
       <c r="C149" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D149">
         <v>21.89</v>
@@ -7128,7 +7134,7 @@
         <v>-0.2278942570647252</v>
       </c>
       <c r="I149" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J149">
         <v>2137</v>
@@ -7148,7 +7154,7 @@
         <v>159</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D150">
         <v>30.21</v>
@@ -7166,7 +7172,7 @@
         <v>-0.6249999999999926</v>
       </c>
       <c r="I150" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J150">
         <v>7698</v>
@@ -7186,7 +7192,7 @@
         <v>160</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D151">
         <v>15.16</v>
@@ -7204,7 +7210,7 @@
         <v>0.198281559814933</v>
       </c>
       <c r="I151" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J151">
         <v>2779</v>
@@ -7224,7 +7230,7 @@
         <v>161</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D152">
         <v>22.77</v>
@@ -7242,7 +7248,7 @@
         <v>-2.567394094993587</v>
       </c>
       <c r="I152" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J152">
         <v>2264</v>
@@ -7262,7 +7268,7 @@
         <v>162</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D153">
         <v>6.39</v>
@@ -7280,7 +7286,7 @@
         <v>-2.293577981651381</v>
       </c>
       <c r="I153" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J153">
         <v>16174</v>
@@ -7300,7 +7306,7 @@
         <v>163</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D154">
         <v>64.66</v>
@@ -7318,7 +7324,7 @@
         <v>1.268598277212209</v>
       </c>
       <c r="I154" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J154">
         <v>18328</v>
@@ -7338,7 +7344,7 @@
         <v>164</v>
       </c>
       <c r="C155" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D155">
         <v>33.14</v>
@@ -7356,7 +7362,7 @@
         <v>-0.4804804804804703</v>
       </c>
       <c r="I155" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J155">
         <v>8130</v>
@@ -7376,7 +7382,7 @@
         <v>165</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D156">
         <v>17.59</v>
@@ -7394,7 +7400,7 @@
         <v>-0.5652911249293466</v>
       </c>
       <c r="I156" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J156">
         <v>3256</v>
@@ -7414,7 +7420,7 @@
         <v>166</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D157">
         <v>29.25</v>
@@ -7432,7 +7438,7 @@
         <v>-0.1365653806759957</v>
       </c>
       <c r="I157" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J157">
         <v>5146</v>
@@ -7452,7 +7458,7 @@
         <v>167</v>
       </c>
       <c r="C158" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D158">
         <v>13.8</v>
@@ -7470,7 +7476,7 @@
         <v>-1.988636363636359</v>
       </c>
       <c r="I158" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J158">
         <v>586</v>
@@ -7490,7 +7496,7 @@
         <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D159">
         <v>25.91</v>
@@ -7508,7 +7514,7 @@
         <v>-1.295238095238095</v>
       </c>
       <c r="I159" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J159">
         <v>1145</v>
@@ -7528,7 +7534,7 @@
         <v>169</v>
       </c>
       <c r="C160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D160">
         <v>16.8</v>
@@ -7546,7 +7552,7 @@
         <v>-0.1782531194295757</v>
       </c>
       <c r="I160" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J160">
         <v>5643</v>
@@ -7566,7 +7572,7 @@
         <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D161">
         <v>13.85</v>
@@ -7584,7 +7590,7 @@
         <v>-1.63352272727273</v>
       </c>
       <c r="I161" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J161">
         <v>19736</v>
@@ -7604,7 +7610,7 @@
         <v>171</v>
       </c>
       <c r="C162" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D162">
         <v>29.72</v>
@@ -7622,7 +7628,7 @@
         <v>0.4732927653820168</v>
       </c>
       <c r="I162" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J162">
         <v>20945</v>
@@ -7642,7 +7648,7 @@
         <v>172</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D163">
         <v>11.38</v>
@@ -7660,7 +7666,7 @@
         <v>-0.61135371179038</v>
       </c>
       <c r="I163" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J163">
         <v>4374</v>
@@ -7680,7 +7686,7 @@
         <v>173</v>
       </c>
       <c r="C164" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D164">
         <v>26.03</v>
@@ -7698,7 +7704,7 @@
         <v>-1.8106374952848</v>
       </c>
       <c r="I164" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J164">
         <v>8524</v>
@@ -7718,7 +7724,7 @@
         <v>174</v>
       </c>
       <c r="C165" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D165">
         <v>22.4</v>
@@ -7736,7 +7742,7 @@
         <v>-1.451825780906299</v>
       </c>
       <c r="I165" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J165">
         <v>3289</v>
@@ -7756,7 +7762,7 @@
         <v>175</v>
       </c>
       <c r="C166" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D166">
         <v>23.31</v>
@@ -7774,7 +7780,7 @@
         <v>-0.5970149253731367</v>
       </c>
       <c r="I166" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J166">
         <v>14190</v>
@@ -7794,7 +7800,7 @@
         <v>176</v>
       </c>
       <c r="C167" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D167">
         <v>57.92</v>
@@ -7812,7 +7818,7 @@
         <v>-1.580288870008496</v>
       </c>
       <c r="I167" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J167">
         <v>2513</v>
@@ -7832,7 +7838,7 @@
         <v>177</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D168">
         <v>13.15</v>
@@ -7850,7 +7856,7 @@
         <v>0.9984639016897142</v>
       </c>
       <c r="I168" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J168">
         <v>28325</v>
@@ -7870,7 +7876,7 @@
         <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D169">
         <v>89.29000000000001</v>
@@ -7888,7 +7894,7 @@
         <v>-1.260643591728409</v>
       </c>
       <c r="I169" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J169">
         <v>72771</v>
@@ -7908,7 +7914,7 @@
         <v>179</v>
       </c>
       <c r="C170" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D170">
         <v>26.72</v>
@@ -7926,7 +7932,7 @@
         <v>1.984732824427479</v>
       </c>
       <c r="I170" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J170">
         <v>4641</v>
@@ -7946,7 +7952,7 @@
         <v>180</v>
       </c>
       <c r="C171" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D171">
         <v>48.39</v>
@@ -7964,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J171">
         <v>15565</v>
@@ -7984,7 +7990,7 @@
         <v>181</v>
       </c>
       <c r="C172" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D172">
         <v>8.83</v>
@@ -8002,7 +8008,7 @@
         <v>-0.6749156355455623</v>
       </c>
       <c r="I172" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J172">
         <v>2196</v>
@@ -8022,7 +8028,7 @@
         <v>182</v>
       </c>
       <c r="C173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D173">
         <v>8.85</v>
@@ -8040,7 +8046,7 @@
         <v>-0.2254791431792511</v>
       </c>
       <c r="I173" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J173">
         <v>1712</v>
@@ -8060,7 +8066,7 @@
         <v>183</v>
       </c>
       <c r="C174" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D174">
         <v>15</v>
@@ -8078,7 +8084,7 @@
         <v>-0.5305039787798413</v>
       </c>
       <c r="I174" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J174">
         <v>47708</v>
@@ -8098,7 +8104,7 @@
         <v>184</v>
       </c>
       <c r="C175" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D175">
         <v>85.56999999999999</v>
@@ -8116,7 +8122,7 @@
         <v>-3.496109168828249</v>
       </c>
       <c r="I175" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J175">
         <v>23640</v>
@@ -8136,7 +8142,7 @@
         <v>185</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D176">
         <v>8.130000000000001</v>
@@ -8154,7 +8160,7 @@
         <v>1.879699248120305</v>
       </c>
       <c r="I176" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J176">
         <v>2884</v>
@@ -8174,7 +8180,7 @@
         <v>186</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D177">
         <v>33.4</v>
@@ -8192,7 +8198,7 @@
         <v>-2.878743820878168</v>
       </c>
       <c r="I177" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J177">
         <v>14582</v>
@@ -8212,7 +8218,7 @@
         <v>187</v>
       </c>
       <c r="C178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D178">
         <v>109.46</v>
@@ -8230,7 +8236,7 @@
         <v>2.808302808302804</v>
       </c>
       <c r="I178" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J178">
         <v>20373</v>
@@ -8250,7 +8256,7 @@
         <v>188</v>
       </c>
       <c r="C179" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D179">
         <v>21.67</v>
@@ -8268,7 +8274,7 @@
         <v>1.261682242990669</v>
       </c>
       <c r="I179" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J179">
         <v>5178</v>
@@ -8278,6 +8284,44 @@
       </c>
       <c r="L179">
         <v>43666089</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>189</v>
+      </c>
+      <c r="C180" t="s">
+        <v>190</v>
+      </c>
+      <c r="D180">
+        <v>19.74</v>
+      </c>
+      <c r="E180">
+        <v>18.5</v>
+      </c>
+      <c r="F180">
+        <v>20.34</v>
+      </c>
+      <c r="G180">
+        <v>18.11</v>
+      </c>
+      <c r="H180">
+        <v>6.702702702702695</v>
+      </c>
+      <c r="I180" t="s">
+        <v>369</v>
+      </c>
+      <c r="J180">
+        <v>59999</v>
+      </c>
+      <c r="K180">
+        <v>25822600</v>
+      </c>
+      <c r="L180">
+        <v>492087713</v>
       </c>
     </row>
   </sheetData>
